--- a/eye_classification_results.xlsx
+++ b/eye_classification_results.xlsx
@@ -1,109 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarik\OneDrive\Documents\Code\Eye Disease Classifier\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E684DC89-D54C-4F0C-825A-6FFC29E7DB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Test Accuracy</t>
-  </si>
-  <si>
-    <t>Test Loss</t>
-  </si>
-  <si>
-    <t>Epochs</t>
-  </si>
-  <si>
-    <t>Confusion Matrix Image</t>
-  </si>
-  <si>
-    <t>confusion_matrix_EfficientNetB0_img256_bs32_ep30_20250622_102630_eye.png</t>
-  </si>
-  <si>
-    <t>Model Summary</t>
-  </si>
-  <si>
-    <t>Confusion Matrix</t>
-  </si>
-  <si>
-    <t>cataract</t>
-  </si>
-  <si>
-    <t>diabetic_retinopathy</t>
-  </si>
-  <si>
-    <t>glaucoma</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>Classification Report</t>
-  </si>
-  <si>
-    <t>precision    recall  f1-score   support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            cataract       0.90      0.92      0.91       157</t>
-  </si>
-  <si>
-    <t>diabetic_retinopathy       0.98      0.94      0.96       166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            glaucoma       0.86      0.79      0.82       152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              normal       0.82      0.90      0.86       162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            accuracy                           0.89       637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           macro avg       0.89      0.89      0.89       637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        weighted avg       0.89      0.89      0.89       637</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -122,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -424,197 +408,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Final Model</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Best Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8838304281234741</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8995290398597717</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4453390836715698</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3867920637130737</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Epochs (Total)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>61</v>
+      </c>
+      <c r="C4" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Confusion Matrix Image (Best Model)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>confusion_matrix_EfficientNetB0_img256_bs32_ep61_20250622_234431_eye.png</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>confusion_matrix_EfficientNetB0_img256_bs32_ep61_20250622_234431_eye.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Model Summary (Best Model)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Model: "functional_9"
+┏━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━┳━━━━━━━━━━━━━━━━━━━━━━━━┳━━━━━━━━━━━━━━━┓
+┃ Layer (type)                    ┃ Output Shape           ┃       Param # ┃
+┡━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━╇━━━━━━━━━━━━━━━━━━━━━━━━╇━━━━━━━━━━━━━━━┩
+│ input_layer_13 (InputLayer)     │ (None, 256, 256, 3)    │             0 │
+├─────────────────────────────────┼────────────────────────┼───────────────┤
+│ efficientnetb0 (Functional)     │ (None, 8, 8, 1280)     │     4,049,571 │
+├─────────────────────────────────┼────────────────────────┼───────────────┤
+│ global_average_pooling2d_6      │ (None, 1280)           │             0 │
+│ (GlobalAveragePooling2D)        │                        │               │
+├─────────────────────────────────┼────────────────────────┼───────────────┤
+│ dense_12 (Dense)                │ (None, 512)            │       655,872 │
+├─────────────────────────────────┼────────────────────────┼───────────────┤
+│ dropout_6 (Dropout)             │ (None, 512)            │             0 │
+├─────────────────────────────────┼────────────────────────┼───────────────┤
+│ dense_13 (Dense)                │ (None, 4)              │         2,052 │
+└─────────────────────────────────┴────────────────────────┴───────────────┘
+ Total params: 6,023,345 (22.98 MB)
+ Trainable params: 657,924 (2.51 MB)
+ Non-trainable params: 4,049,571 (15.45 MB)
+ Optimizer params: 1,315,850 (5.02 MB)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Confusion Matrix (Best Model)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cataract</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>diabetic_retinopathy</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>glaucoma</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cataract</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>143</v>
+      </c>
+      <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>diabetic_retinopathy</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>163</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>glaucoma</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0.88854002952575684</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D14" t="n">
+        <v>119</v>
+      </c>
+      <c r="E14" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0.47223964333534241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>145</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>156</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>120</v>
-      </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>21</v>
+      <c r="E15" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Classification Report (Best Model)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>precision    recall  f1-score   support</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            cataract       0.95      0.91      0.93       157</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>diabetic_retinopathy       0.97      0.98      0.98       166</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            glaucoma       0.88      0.78      0.83       152</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">              normal       0.81      0.91      0.86       162</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            accuracy                           0.90       637</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           macro avg       0.90      0.90      0.90       637</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        weighted avg       0.90      0.90      0.90       637</t>
+        </is>
       </c>
     </row>
   </sheetData>
